--- a/(OPR)Import_kim/(OPR)Import Employee.xlsx
+++ b/(OPR)Import_kim/(OPR)Import Employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR_api\(OPR)Import_kim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA7769-B3F1-47A1-BA5B-0A579D92F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCFA9C-9630-45C3-84BD-2190F8DDE35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>company_code</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -735,12 +735,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
